--- a/read_xls/sample.xlsx
+++ b/read_xls/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18315" windowHeight="8295" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18315" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>This is sheet1.</t>
     <phoneticPr fontId="1"/>
@@ -82,6 +82,46 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠れている列</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示されている列</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠れている行</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示されている行</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -434,20 +474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -458,7 +498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -467,6 +507,34 @@
       </c>
       <c r="D4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -477,49 +545,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
